--- a/exp7所需的材料/StarryCPU_truthtable.xlsx
+++ b/exp7所需的材料/StarryCPU_truthtable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\exp7所需的材料\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACC0C0-A917-443A-97E8-C4AB81432B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +186,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -189,7 +195,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF0000FF"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -198,7 +204,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -219,7 +225,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -228,7 +234,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF0000FF"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -237,7 +243,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -258,7 +264,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -267,7 +273,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF0000FF"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -276,7 +282,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -303,7 +309,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -312,7 +318,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF0000FF"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -321,7 +327,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.95"/>
+        <sz val="9.9499999999999993"/>
         <color rgb="FF000000"/>
         <rFont val="黑体"/>
         <charset val="134"/>
@@ -517,14 +523,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,7 +546,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.95"/>
+      <sz val="9.9499999999999993"/>
       <color rgb="FF000000"/>
       <name val="黑体"/>
       <charset val="134"/>
@@ -565,358 +565,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9.9499999999999993"/>
+      <color rgb="FF0000FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.95"/>
-      <color rgb="FF0000FF"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -939,251 +608,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1217,65 +644,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1533,41 +916,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="76.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8583333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.4416666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.275" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5583333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1591,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1629,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:16">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +1043,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" ht="28" spans="1:16">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1075,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" ht="26" spans="1:16">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1107,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="26" spans="1:16">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1139,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" ht="21" spans="1:16">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1171,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" ht="21" spans="1:16">
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1821,7 +1203,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" ht="21" spans="1:16">
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1235,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" ht="21" spans="1:16">
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1267,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" ht="27" spans="1:16">
+    <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1901,7 +1283,7 @@
       <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1921,7 +1303,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" ht="27" spans="1:16">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +1319,7 @@
       <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
@@ -1955,7 +1337,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" ht="27" spans="1:16">
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +1373,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" ht="28" spans="1:16">
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2025,7 +1407,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" ht="65" spans="1:16">
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2061,7 +1443,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" ht="52" spans="1:16">
+    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2095,7 +1477,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" ht="28" spans="1:16">
+    <row r="17" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2133,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="31.2" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2161,7 +1543,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" ht="28" spans="1:16">
+    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -2201,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:16">
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +1613,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" ht="28" spans="1:16">
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
@@ -2261,7 +1643,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" ht="21" spans="1:16">
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -2295,7 +1677,7 @@
       </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" ht="132" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2310,58 +1692,58 @@
       <c r="J23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" ht="182" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" ht="181.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2369,7 +1751,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2377,7 +1759,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
@@ -2387,7 +1769,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
@@ -2397,7 +1779,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
@@ -2407,7 +1789,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
@@ -2417,7 +1799,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2425,7 +1807,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2433,7 +1815,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2445,7 +1827,7 @@
   <mergeCells count="1">
     <mergeCell ref="F11:F12"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>